--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>28.59378</v>
-      </c>
-      <c r="C2" t="n">
-        <v>76.59441</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.23176</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1.5315</v>
-      </c>
-      <c r="G2" t="n">
-        <v>52.83838</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.44179</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.00714</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.43236</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.60965</v>
-      </c>
-      <c r="L2" t="n">
-        <v>662.67171</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.73038</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.75291</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35.38193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13.26873</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.10489</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.46485</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.12885</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.40586</v>
-      </c>
-      <c r="U2" t="n">
-        <v>12.19445</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.32775</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.0571</v>
-      </c>
-      <c r="X2" t="n">
-        <v>24.73828</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>57.56598</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>27.18452</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>32.27693</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.63304</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51.84252</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.57701</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24.24506</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.32682</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.32846</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12.48592</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29.18544</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.38546</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>15.23981</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>20.8995</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>17.61723</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>30.24202</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.95728</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>29.9326</v>
-      </c>
-      <c r="C3" t="n">
-        <v>59.91337</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.85156</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.67505</v>
-      </c>
-      <c r="G3" t="n">
-        <v>97.72732999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15.66131</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.78195</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.13226</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.76594</v>
-      </c>
-      <c r="L3" t="n">
-        <v>767.58331</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9563199999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.23272</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40.38875</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13.66987</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.56742</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.97203</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.84538</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.72417</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9.162470000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>11.7856</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.98647</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11.22981</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>67.04859999999999</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>59.45871</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>43.88682</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.59879</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>53.46565</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.99636</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>36.61122</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.05676</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20.52717</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11.19792</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>36.8727</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.705</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.89511</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>18.9593</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>19.76628</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19.22241</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.54954</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>24.84391</v>
-      </c>
-      <c r="C4" t="n">
-        <v>63.49602</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.88169</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="G4" t="n">
-        <v>70.36216</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.50878</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.17774</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.14246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.44486</v>
-      </c>
-      <c r="L4" t="n">
-        <v>705.01027</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.20877</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.51511</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33.06204</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.87349</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.84742</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.09827</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.85522</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.38438</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.770160000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.86269</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.24953</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.56622</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>59.93681</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>68.33792</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29.773</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.52927</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>38.78267</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.0741</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>32.52252</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.4508</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>16.49189</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.02503</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>37.71179</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.64984</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>22.94322</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>22.14041</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>22.77303</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>14.15036</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.27592</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
